--- a/data/OOCL Port Code Mapping.xlsx
+++ b/data/OOCL Port Code Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tym.Teo\Documents\Delay Report - Rewrite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6343A429-3634-414D-8709-AA86B90A6A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA6C5AC-4D9B-449D-AA19-2240498D6D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,9 +323,6 @@
     <t>Mombasa, Kenya</t>
   </si>
   <si>
-    <t>Incheon, Inchon, South Korea</t>
-  </si>
-  <si>
     <t>Klang, Selangor, Malaysia</t>
   </si>
   <si>
@@ -347,12 +344,6 @@
     <t>Laem Chabang, Chon Buri, Thailand</t>
   </si>
   <si>
-    <t>Bangkok, Krung Thep Mahanakhon, Thailand</t>
-  </si>
-  <si>
-    <t>Ho Chi Minh (Cat Lai), Ho Chi Minh, Vietnam</t>
-  </si>
-  <si>
     <t>Ho Chi Minh, Ho Chi Minh, Vietnam</t>
   </si>
   <si>
@@ -362,9 +353,6 @@
     <t>Gwangyang, Chollanam-do, South Korea</t>
   </si>
   <si>
-    <t>Hai Phong, Hai Phong, Vietnam</t>
-  </si>
-  <si>
     <t>Busan, Busan, South Korea</t>
   </si>
   <si>
@@ -423,6 +411,18 @@
   </si>
   <si>
     <t>Busan, South Korea</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh, Vietnam</t>
+  </si>
+  <si>
+    <t>Bangkok, Thailand</t>
+  </si>
+  <si>
+    <t>Inchon, South Korea</t>
+  </si>
+  <si>
+    <t>Hai Phong, Vietnam</t>
   </si>
 </sst>
 </file>
@@ -894,7 +894,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -908,7 +908,7 @@
         <v>82</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -937,10 +937,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -964,7 +964,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -972,15 +972,15 @@
         <v>71</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -988,7 +988,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -996,7 +996,7 @@
         <v>73</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1004,7 +1004,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>54</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1025,10 +1025,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1036,7 +1036,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
         <v>49</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1089,10 +1089,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1100,7 +1100,7 @@
         <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1108,7 +1108,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1116,7 +1116,7 @@
         <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1124,7 +1124,7 @@
         <v>84</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
         <v>63</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1140,15 +1140,15 @@
         <v>65</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>66</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
         <v>58</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1172,7 +1172,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1180,7 +1180,7 @@
         <v>57</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1188,7 +1188,7 @@
         <v>64</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1196,7 +1196,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>70</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1220,7 +1220,7 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1228,7 +1228,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1236,7 +1236,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1244,7 +1244,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1252,7 +1252,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2236,12 +2236,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B07C177EC98944892D6859FC7228F27" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa0312146baf983fe551619124602045">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cadb0006-b086-403f-9c46-c0186d7f6965" xmlns:ns3="4af93f69-0cef-4f40-803d-f637351e1512" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8aa75208339fe16869b5142f429bf55" ns2:_="" ns3:_="">
     <xsd:import namespace="cadb0006-b086-403f-9c46-c0186d7f6965"/>
@@ -2458,16 +2467,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01DD0693-FE4D-4885-BF24-94BEA9248921}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE68490-0574-4399-8E76-2FC2ACED3CAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2476,7 +2484,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80FBAC62-C129-4627-A795-495E3326B79B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2493,12 +2501,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01DD0693-FE4D-4885-BF24-94BEA9248921}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>